--- a/Pruebas/Gasto.xlsx
+++ b/Pruebas/Gasto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/425f7634435c6874/Escritorio/4- ITESO/Series de Tiempo/Series_Tiempo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/425f7634435c6874/Escritorio/4- ITESO/Series de Tiempo/Series_Tiempo/Pruebas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{11E31160-3AE2-4109-B863-A58399DCF87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E010FEE-6A8C-425A-9CFB-4B37F277CA4C}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{11E31160-3AE2-4109-B863-A58399DCF87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{828D5365-AFD5-4539-A088-075A8DFC0716}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{B165DE4D-0412-44C6-9EA9-E9B654831EFF}"/>
   </bookViews>
@@ -105,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -115,6 +115,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +436,505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BACDC0E-55EC-4BF6-9BB3-133357357345}">
-  <dimension ref="B2:C58"/>
+  <dimension ref="B2:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3:F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>45306</v>
+      </c>
+      <c r="C3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>45307</v>
+      </c>
+      <c r="C4" s="7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>45307</v>
+      </c>
+      <c r="C5" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>45308</v>
+      </c>
+      <c r="C6" s="7">
+        <v>916.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>45309</v>
+      </c>
+      <c r="C7" s="7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>45310</v>
+      </c>
+      <c r="C8" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>45310</v>
+      </c>
+      <c r="C9" s="7">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>45313</v>
+      </c>
+      <c r="C10" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>45313</v>
+      </c>
+      <c r="C11" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>45314</v>
+      </c>
+      <c r="C12" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>45314</v>
+      </c>
+      <c r="C13" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>45316</v>
+      </c>
+      <c r="C14" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>45316</v>
+      </c>
+      <c r="C15" s="7">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>45316</v>
+      </c>
+      <c r="C16" s="7">
+        <v>170.98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>45317</v>
+      </c>
+      <c r="C17" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>45318</v>
+      </c>
+      <c r="C18" s="7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>45318</v>
+      </c>
+      <c r="C19" s="7">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>45319</v>
+      </c>
+      <c r="C20" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>45320</v>
+      </c>
+      <c r="C21" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>45321</v>
+      </c>
+      <c r="C22" s="7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>45321</v>
+      </c>
+      <c r="C23" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>45321</v>
+      </c>
+      <c r="C24" s="7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>45322</v>
+      </c>
+      <c r="C25" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>45322</v>
+      </c>
+      <c r="C26" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>45323</v>
+      </c>
+      <c r="C27" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>45324</v>
+      </c>
+      <c r="C28" s="7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>45324</v>
+      </c>
+      <c r="C29" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>45324</v>
+      </c>
+      <c r="C30" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>45324</v>
+      </c>
+      <c r="C31" s="7">
+        <v>249.9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>45328</v>
+      </c>
+      <c r="C32" s="7">
+        <v>159.97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>45328</v>
+      </c>
+      <c r="C33" s="7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>45329</v>
+      </c>
+      <c r="C34" s="7">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>45330</v>
+      </c>
+      <c r="C35" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>45330</v>
+      </c>
+      <c r="C36" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>45331</v>
+      </c>
+      <c r="C37" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>45331</v>
+      </c>
+      <c r="C38" s="7">
+        <v>401.08</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>45332</v>
+      </c>
+      <c r="C39" s="7">
+        <v>111.44</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>45332</v>
+      </c>
+      <c r="C40" s="7">
+        <v>695.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <v>45332</v>
+      </c>
+      <c r="C41" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>45332</v>
+      </c>
+      <c r="C42" s="7">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="6">
+        <v>45334</v>
+      </c>
+      <c r="C43" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="6">
+        <v>45335</v>
+      </c>
+      <c r="C44" s="7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="6">
+        <v>45335</v>
+      </c>
+      <c r="C45" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="6">
+        <v>45336</v>
+      </c>
+      <c r="C46" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="6">
+        <v>45337</v>
+      </c>
+      <c r="C47" s="7">
+        <v>169.56</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="6">
+        <v>45337</v>
+      </c>
+      <c r="C48" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="6">
+        <v>45338</v>
+      </c>
+      <c r="C49" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="6">
+        <v>45339</v>
+      </c>
+      <c r="C50" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="6">
+        <v>45339</v>
+      </c>
+      <c r="C51" s="7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="6">
+        <v>45340</v>
+      </c>
+      <c r="C52" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="6">
+        <v>45341</v>
+      </c>
+      <c r="C53" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="6">
+        <v>45341</v>
+      </c>
+      <c r="C54" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="6">
+        <v>45342</v>
+      </c>
+      <c r="C55" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="6">
+        <v>45342</v>
+      </c>
+      <c r="C56" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="6">
+        <v>45342</v>
+      </c>
+      <c r="C57" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="6">
+        <v>45343</v>
+      </c>
+      <c r="C58" s="7">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="6">
+        <v>45343</v>
+      </c>
+      <c r="C59" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="6">
+        <v>45344</v>
+      </c>
+      <c r="C60" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="6">
+        <v>45345</v>
+      </c>
+      <c r="C61" s="7">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2901F73D-00B6-4BE4-B9ED-D0380FDDB5CA}">
+  <dimension ref="B2:C42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,816 +948,363 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>45306</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
+        <f>SUMIF(Entradas!B3:B61,B3,Entradas!C3:C61)</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>45307</v>
       </c>
-      <c r="C4" s="3">
-        <v>142</v>
+      <c r="C4" s="1">
+        <f>SUMIF(Entradas!B4:B62,B4,Entradas!C4:C62)</f>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>45307</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="6">
+        <v>45308</v>
+      </c>
+      <c r="C5" s="1">
+        <f>SUMIF(Entradas!B5:B63,B5,Entradas!C5:C63)</f>
+        <v>916.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>45309</v>
+      </c>
+      <c r="C6" s="1">
+        <f>SUMIF(Entradas!B6:B64,B6,Entradas!C6:C64)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>45310</v>
+      </c>
+      <c r="C7" s="1">
+        <f>SUMIF(Entradas!B7:B65,B7,Entradas!C7:C65)</f>
+        <v>213.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>45311</v>
+      </c>
+      <c r="C8" s="1">
+        <f>SUMIF(Entradas!B8:B66,B8,Entradas!C8:C66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>45312</v>
+      </c>
+      <c r="C9" s="1">
+        <f>SUMIF(Entradas!B9:B67,B9,Entradas!C9:C67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>45313</v>
+      </c>
+      <c r="C10" s="1">
+        <f>SUMIF(Entradas!B10:B68,B10,Entradas!C10:C68)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>45314</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUMIF(Entradas!B11:B69,B11,Entradas!C11:C69)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>45315</v>
+      </c>
+      <c r="C12" s="1">
+        <f>SUMIF(Entradas!B12:B70,B12,Entradas!C12:C70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>45316</v>
+      </c>
+      <c r="C13" s="1">
+        <f>SUMIF(Entradas!B13:B71,B13,Entradas!C13:C71)</f>
+        <v>656.98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>45317</v>
+      </c>
+      <c r="C14" s="1">
+        <f>SUMIF(Entradas!B14:B72,B14,Entradas!C14:C72)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>45308</v>
-      </c>
-      <c r="C6" s="3">
-        <v>916.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>45309</v>
-      </c>
-      <c r="C7" s="3">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>45310</v>
-      </c>
-      <c r="C8" s="3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>45318</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUMIF(Entradas!B15:B73,B15,Entradas!C15:C73)</f>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>45319</v>
+      </c>
+      <c r="C16" s="1">
+        <f>SUMIF(Entradas!B16:B74,B16,Entradas!C16:C74)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>45320</v>
+      </c>
+      <c r="C17" s="1">
+        <f>SUMIF(Entradas!B17:B75,B17,Entradas!C17:C75)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>45321</v>
+      </c>
+      <c r="C18" s="1">
+        <f>SUMIF(Entradas!B18:B76,B18,Entradas!C18:C76)</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>45322</v>
+      </c>
+      <c r="C19" s="1">
+        <f>SUMIF(Entradas!B19:B77,B19,Entradas!C19:C77)</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>45323</v>
+      </c>
+      <c r="C20" s="1">
+        <f>SUMIF(Entradas!B20:B78,B20,Entradas!C20:C78)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>45310</v>
-      </c>
-      <c r="C9" s="3">
-        <v>123.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>45313</v>
-      </c>
-      <c r="C10" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>45313</v>
-      </c>
-      <c r="C11" s="3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>45324</v>
+      </c>
+      <c r="C21" s="1">
+        <f>SUMIF(Entradas!B21:B79,B21,Entradas!C21:C79)</f>
+        <v>549.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>45325</v>
+      </c>
+      <c r="C22" s="1">
+        <f>SUMIF(Entradas!B22:B80,B22,Entradas!C22:C80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>45326</v>
+      </c>
+      <c r="C23" s="1">
+        <f>SUMIF(Entradas!B23:B81,B23,Entradas!C23:C81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>45327</v>
+      </c>
+      <c r="C24" s="1">
+        <f>SUMIF(Entradas!B24:B82,B24,Entradas!C24:C82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>45328</v>
+      </c>
+      <c r="C25" s="1">
+        <f>SUMIF(Entradas!B25:B83,B25,Entradas!C25:C83)</f>
+        <v>274.97000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>45329</v>
+      </c>
+      <c r="C26" s="1">
+        <f>SUMIF(Entradas!B26:B84,B26,Entradas!C26:C84)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>45330</v>
+      </c>
+      <c r="C27" s="1">
+        <f>SUMIF(Entradas!B27:B85,B27,Entradas!C27:C85)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>45331</v>
+      </c>
+      <c r="C28" s="1">
+        <f>SUMIF(Entradas!B28:B86,B28,Entradas!C28:C86)</f>
+        <v>511.08</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>45332</v>
+      </c>
+      <c r="C29" s="1">
+        <f>SUMIF(Entradas!B29:B87,B29,Entradas!C29:C87)</f>
+        <v>1227.6400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>45333</v>
+      </c>
+      <c r="C30" s="1">
+        <f>SUMIF(Entradas!B30:B88,B30,Entradas!C30:C88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>45334</v>
+      </c>
+      <c r="C31" s="1">
+        <f>SUMIF(Entradas!B31:B89,B31,Entradas!C31:C89)</f>
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>45314</v>
-      </c>
-      <c r="C12" s="3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>45335</v>
+      </c>
+      <c r="C32" s="1">
+        <f>SUMIF(Entradas!B32:B90,B32,Entradas!C32:C90)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>45336</v>
+      </c>
+      <c r="C33" s="1">
+        <f>SUMIF(Entradas!B33:B91,B33,Entradas!C33:C91)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>45337</v>
+      </c>
+      <c r="C34" s="1">
+        <f>SUMIF(Entradas!B34:B92,B34,Entradas!C34:C92)</f>
+        <v>254.56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>45338</v>
+      </c>
+      <c r="C35" s="1">
+        <f>SUMIF(Entradas!B35:B93,B35,Entradas!C35:C93)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>45314</v>
-      </c>
-      <c r="C13" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>45316</v>
-      </c>
-      <c r="C14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>45316</v>
-      </c>
-      <c r="C15" s="3">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>45316</v>
-      </c>
-      <c r="C16" s="3">
-        <v>170.98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>45317</v>
-      </c>
-      <c r="C17" s="3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>45339</v>
+      </c>
+      <c r="C36" s="1">
+        <f>SUMIF(Entradas!B36:B94,B36,Entradas!C36:C94)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>45340</v>
+      </c>
+      <c r="C37" s="1">
+        <f>SUMIF(Entradas!B37:B95,B37,Entradas!C37:C95)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>45341</v>
+      </c>
+      <c r="C38" s="1">
+        <f>SUMIF(Entradas!B38:B96,B38,Entradas!C38:C96)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>45342</v>
+      </c>
+      <c r="C39" s="1">
+        <f>SUMIF(Entradas!B39:B97,B39,Entradas!C39:C97)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>45343</v>
+      </c>
+      <c r="C40" s="1">
+        <f>SUMIF(Entradas!B40:B98,B40,Entradas!C40:C98)</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <v>45344</v>
+      </c>
+      <c r="C41" s="1">
+        <f>SUMIF(Entradas!B41:B99,B41,Entradas!C41:C99)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>45345</v>
+      </c>
+      <c r="C42" s="1">
+        <f>SUMIF(Entradas!B42:B100,B42,Entradas!C42:C100)</f>
         <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>45318</v>
-      </c>
-      <c r="C18" s="3">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>45318</v>
-      </c>
-      <c r="C19" s="3">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>45319</v>
-      </c>
-      <c r="C20" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>45320</v>
-      </c>
-      <c r="C21" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>45321</v>
-      </c>
-      <c r="C22" s="3">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>45321</v>
-      </c>
-      <c r="C23" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>45321</v>
-      </c>
-      <c r="C24" s="3">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>45322</v>
-      </c>
-      <c r="C25" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>45322</v>
-      </c>
-      <c r="C26" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>45323</v>
-      </c>
-      <c r="C27" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C28" s="3">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C29" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C30" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C31" s="3">
-        <v>249.9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>45328</v>
-      </c>
-      <c r="C32" s="3">
-        <v>159.97</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <v>45328</v>
-      </c>
-      <c r="C33" s="3">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>45329</v>
-      </c>
-      <c r="C34" s="3">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>45330</v>
-      </c>
-      <c r="C35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>45330</v>
-      </c>
-      <c r="C36" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>45331</v>
-      </c>
-      <c r="C37" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <v>45331</v>
-      </c>
-      <c r="C38" s="3">
-        <v>401.08</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
-        <v>45332</v>
-      </c>
-      <c r="C39" s="3">
-        <v>111.44</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
-        <v>45332</v>
-      </c>
-      <c r="C40" s="3">
-        <v>695.2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="2">
-        <v>45332</v>
-      </c>
-      <c r="C41" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="2">
-        <v>45332</v>
-      </c>
-      <c r="C42" s="3">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="2">
-        <v>45334</v>
-      </c>
-      <c r="C43" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="2">
-        <v>45335</v>
-      </c>
-      <c r="C44" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="2">
-        <v>45335</v>
-      </c>
-      <c r="C45" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="2">
-        <v>45336</v>
-      </c>
-      <c r="C46" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="2">
-        <v>45337</v>
-      </c>
-      <c r="C47" s="3">
-        <v>169.56</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="2">
-        <v>45337</v>
-      </c>
-      <c r="C48" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="2">
-        <v>45338</v>
-      </c>
-      <c r="C49" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="2">
-        <v>45339</v>
-      </c>
-      <c r="C50" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="2">
-        <v>45339</v>
-      </c>
-      <c r="C51" s="3">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="2">
-        <v>45340</v>
-      </c>
-      <c r="C52" s="3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="2">
-        <v>45341</v>
-      </c>
-      <c r="C53" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="2">
-        <v>45341</v>
-      </c>
-      <c r="C54" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="2">
-        <v>45342</v>
-      </c>
-      <c r="C55" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="2">
-        <v>45342</v>
-      </c>
-      <c r="C56" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="2">
-        <v>45342</v>
-      </c>
-      <c r="C57" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="2">
-        <v>45343</v>
-      </c>
-      <c r="C58" s="3">
-        <v>318</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2901F73D-00B6-4BE4-B9ED-D0380FDDB5CA}">
-  <dimension ref="B2:C40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>45306</v>
-      </c>
-      <c r="C3" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B3,Entradas!$C$3:$C$58)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>45307</v>
-      </c>
-      <c r="C4" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B4,Entradas!$C$3:$C$58)</f>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>45308</v>
-      </c>
-      <c r="C5" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B5,Entradas!$C$3:$C$58)</f>
-        <v>916.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>45309</v>
-      </c>
-      <c r="C6" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B6,Entradas!$C$3:$C$58)</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>45310</v>
-      </c>
-      <c r="C7" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B7,Entradas!$C$3:$C$58)</f>
-        <v>213.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>45311</v>
-      </c>
-      <c r="C8" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B8,Entradas!$C$3:$C$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>45312</v>
-      </c>
-      <c r="C9" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B9,Entradas!$C$3:$C$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>45313</v>
-      </c>
-      <c r="C10" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B10,Entradas!$C$3:$C$58)</f>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>45314</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B11,Entradas!$C$3:$C$58)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>45315</v>
-      </c>
-      <c r="C12" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B12,Entradas!$C$3:$C$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>45316</v>
-      </c>
-      <c r="C13" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B13,Entradas!$C$3:$C$58)</f>
-        <v>656.98</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>45317</v>
-      </c>
-      <c r="C14" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B14,Entradas!$C$3:$C$58)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>45318</v>
-      </c>
-      <c r="C15" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B15,Entradas!$C$3:$C$58)</f>
-        <v>513</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>45319</v>
-      </c>
-      <c r="C16" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B16,Entradas!$C$3:$C$58)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>45320</v>
-      </c>
-      <c r="C17" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B17,Entradas!$C$3:$C$58)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>45321</v>
-      </c>
-      <c r="C18" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B18,Entradas!$C$3:$C$58)</f>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>45322</v>
-      </c>
-      <c r="C19" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B19,Entradas!$C$3:$C$58)</f>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>45323</v>
-      </c>
-      <c r="C20" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B20,Entradas!$C$3:$C$58)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C21" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B21,Entradas!$C$3:$C$58)</f>
-        <v>549.9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>45325</v>
-      </c>
-      <c r="C22" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B22,Entradas!$C$3:$C$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>45326</v>
-      </c>
-      <c r="C23" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B23,Entradas!$C$3:$C$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>45327</v>
-      </c>
-      <c r="C24" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B24,Entradas!$C$3:$C$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>45328</v>
-      </c>
-      <c r="C25" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B25,Entradas!$C$3:$C$58)</f>
-        <v>274.97000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>45329</v>
-      </c>
-      <c r="C26" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B26,Entradas!$C$3:$C$58)</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>45330</v>
-      </c>
-      <c r="C27" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B27,Entradas!$C$3:$C$58)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
-        <v>45331</v>
-      </c>
-      <c r="C28" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B28,Entradas!$C$3:$C$58)</f>
-        <v>511.08</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <v>45332</v>
-      </c>
-      <c r="C29" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B29,Entradas!$C$3:$C$58)</f>
-        <v>1227.6400000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
-        <v>45333</v>
-      </c>
-      <c r="C30" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B30,Entradas!$C$3:$C$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>45334</v>
-      </c>
-      <c r="C31" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B31,Entradas!$C$3:$C$58)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>45335</v>
-      </c>
-      <c r="C32" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B32,Entradas!$C$3:$C$58)</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <v>45336</v>
-      </c>
-      <c r="C33" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B33,Entradas!$C$3:$C$58)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>45337</v>
-      </c>
-      <c r="C34" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B34,Entradas!$C$3:$C$58)</f>
-        <v>254.56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>45338</v>
-      </c>
-      <c r="C35" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B35,Entradas!$C$3:$C$58)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>45339</v>
-      </c>
-      <c r="C36" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B36,Entradas!$C$3:$C$58)</f>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>45340</v>
-      </c>
-      <c r="C37" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B37,Entradas!$C$3:$C$58)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <v>45341</v>
-      </c>
-      <c r="C38" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B38,Entradas!$C$3:$C$58)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
-        <v>45342</v>
-      </c>
-      <c r="C39" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B39,Entradas!$C$3:$C$58)</f>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
-        <v>45343</v>
-      </c>
-      <c r="C40" s="1">
-        <f>SUMIF(Entradas!$B$3:$B$58,B40,Entradas!$C$3:$C$58)</f>
-        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Gasto.xlsx
+++ b/Pruebas/Gasto.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/425f7634435c6874/Escritorio/4- ITESO/Series de Tiempo/Series_Tiempo/Pruebas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{11E31160-3AE2-4109-B863-A58399DCF87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{828D5365-AFD5-4539-A088-075A8DFC0716}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{11E31160-3AE2-4109-B863-A58399DCF87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B093037C-FD72-4D30-B1C0-8ED51394F004}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{B165DE4D-0412-44C6-9EA9-E9B654831EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas" sheetId="1" r:id="rId1"/>
     <sheet name="Gasto diario" sheetId="4" r:id="rId2"/>
-    <sheet name="Gasto Semanal" sheetId="5" r:id="rId3"/>
-    <sheet name="Mal" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Date</t>
   </si>
@@ -105,17 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -140,9 +130,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +170,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +276,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,492 +426,941 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BACDC0E-55EC-4BF6-9BB3-133357357345}">
-  <dimension ref="B2:C61"/>
+  <dimension ref="B2:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F42"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73:C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
         <v>45306</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="E3" s="2">
+        <v>45306</v>
+      </c>
+      <c r="F3">
+        <f>SUMIF($B$3:$B$76,E3,$C$3:$C$76)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>45307</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="E4" s="2">
         <v>45307</v>
       </c>
-      <c r="C5" s="7">
+      <c r="F4">
+        <f t="shared" ref="F4:F49" si="0">SUMIF($B$3:$B$76,E4,$C$3:$C$76)</f>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>45307</v>
+      </c>
+      <c r="C5" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="E5" s="2">
         <v>45308</v>
       </c>
-      <c r="C6" s="7">
+      <c r="F5">
+        <f t="shared" si="0"/>
         <v>916.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>45308</v>
+      </c>
+      <c r="C6" s="3">
+        <v>916.5</v>
+      </c>
+      <c r="E6" s="2">
         <v>45309</v>
       </c>
-      <c r="C7" s="7">
+      <c r="F6">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>45309</v>
+      </c>
+      <c r="C7" s="3">
+        <v>198</v>
+      </c>
+      <c r="E7" s="2">
         <v>45310</v>
       </c>
-      <c r="C8" s="7">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>213.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>45310</v>
+      </c>
+      <c r="C8" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="E8" s="2">
+        <v>45311</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>45310</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>123.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="E9" s="2">
+        <v>45312</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>45313</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="E10" s="2">
         <v>45313</v>
       </c>
-      <c r="C11" s="7">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>45313</v>
+      </c>
+      <c r="C11" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="E11" s="2">
         <v>45314</v>
       </c>
-      <c r="C12" s="7">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>45314</v>
+      </c>
+      <c r="C12" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="E12" s="2">
+        <v>45315</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>45314</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+      <c r="E13" s="2">
         <v>45316</v>
       </c>
-      <c r="C14" s="7">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>656.98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>45316</v>
+      </c>
+      <c r="C14" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+      <c r="E14" s="2">
+        <v>45317</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>45316</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>386</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+      <c r="E15" s="2">
+        <v>45318</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <v>45316</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>170.98</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+      <c r="E16" s="2">
+        <v>45319</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <v>45317</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+      <c r="E17" s="2">
+        <v>45320</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <v>45318</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
+      <c r="E18" s="2">
+        <v>45321</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <v>45318</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <v>359</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
+      <c r="E19" s="2">
+        <v>45322</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <v>45319</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
+      <c r="E20" s="2">
+        <v>45323</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
         <v>45320</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
+      <c r="E21" s="2">
+        <v>45324</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>549.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
         <v>45321</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <v>141</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
+      <c r="E22" s="2">
+        <v>45325</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
         <v>45321</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
+      <c r="E23" s="2">
+        <v>45326</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
         <v>45321</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
+      <c r="E24" s="2">
+        <v>45327</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
         <v>45322</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
+      <c r="E25" s="2">
+        <v>45328</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>274.97000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
         <v>45322</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
+      <c r="E26" s="2">
+        <v>45329</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
         <v>45323</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
+      <c r="E27" s="2">
+        <v>45330</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
         <v>45324</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="3">
         <v>165</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="6">
+      <c r="E28" s="2">
+        <v>45331</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>511.08</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
         <v>45324</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="6">
+      <c r="E29" s="2">
+        <v>45332</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1227.6400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
         <v>45324</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="6">
+      <c r="E30" s="2">
+        <v>45333</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
         <v>45324</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="3">
         <v>249.9</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
+      <c r="E31" s="2">
+        <v>45334</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
         <v>45328</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="3">
         <v>159.97</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
+      <c r="E32" s="2">
+        <v>45335</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
         <v>45328</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="3">
         <v>115</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="6">
+      <c r="E33" s="2">
+        <v>45336</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
         <v>45329</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="3">
         <v>184</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="6">
+      <c r="E34" s="2">
+        <v>45337</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>254.56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
         <v>45330</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="6">
+      <c r="E35" s="2">
+        <v>45338</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
         <v>45330</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="6">
+      <c r="E36" s="2">
+        <v>45339</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
         <v>45331</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="3">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="6">
+      <c r="E37" s="2">
+        <v>45340</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
         <v>45331</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="3">
         <v>401.08</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="6">
+      <c r="E38" s="2">
+        <v>45341</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
         <v>45332</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="3">
         <v>111.44</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="6">
+      <c r="E39" s="2">
+        <v>45342</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
         <v>45332</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="3">
         <v>695.2</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="6">
+      <c r="E40" s="2">
+        <v>45343</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
         <v>45332</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="6">
+      <c r="E41" s="2">
+        <v>45344</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
         <v>45332</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="3">
         <v>396</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="6">
+      <c r="E42" s="2">
+        <v>45345</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
         <v>45334</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="6">
+      <c r="E43" s="2">
+        <v>45346</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>366.4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
         <v>45335</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="6">
+      <c r="E44" s="2">
+        <v>45347</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
         <v>45335</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="6">
+      <c r="E45" s="2">
+        <v>45348</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
         <v>45336</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="6">
+      <c r="E46" s="2">
+        <v>45349</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
         <v>45337</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="3">
         <v>169.56</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="6">
+      <c r="E47" s="2">
+        <v>45350</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
         <v>45337</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="6">
+      <c r="E48" s="2">
+        <v>45351</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
         <v>45338</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="6">
+      <c r="E49" s="2">
+        <v>45352</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>469.88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
         <v>45339</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
         <v>45339</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
         <v>45340</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
         <v>45341</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
         <v>45341</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
         <v>45342</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
         <v>45342</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
         <v>45342</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
         <v>45343</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="3">
         <v>318</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
         <v>45343</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
         <v>45344</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
         <v>45345</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="3">
         <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <v>45346</v>
+      </c>
+      <c r="C62" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>45346</v>
+      </c>
+      <c r="C63" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <v>45346</v>
+      </c>
+      <c r="C64" s="3">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>45347</v>
+      </c>
+      <c r="C65" s="3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <v>45348</v>
+      </c>
+      <c r="C66" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>45348</v>
+      </c>
+      <c r="C67" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <v>45349</v>
+      </c>
+      <c r="C68" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
+        <v>45349</v>
+      </c>
+      <c r="C69" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="2">
+        <v>45351</v>
+      </c>
+      <c r="C70" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
+        <v>45351</v>
+      </c>
+      <c r="C71" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="2">
+        <v>45351</v>
+      </c>
+      <c r="C72" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="2">
+        <v>45352</v>
+      </c>
+      <c r="C73" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="2">
+        <v>45352</v>
+      </c>
+      <c r="C74" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="2">
+        <v>45352</v>
+      </c>
+      <c r="C75" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="2">
+        <v>45352</v>
+      </c>
+      <c r="C76" s="3">
+        <v>274.88</v>
       </c>
     </row>
   </sheetData>
@@ -931,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2901F73D-00B6-4BE4-B9ED-D0380FDDB5CA}">
-  <dimension ref="B2:C42"/>
+  <dimension ref="B2:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,456 +1387,11 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
-        <v>45306</v>
-      </c>
-      <c r="C3" s="1">
-        <f>SUMIF(Entradas!B3:B61,B3,Entradas!C3:C61)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
-        <v>45307</v>
-      </c>
-      <c r="C4" s="1">
-        <f>SUMIF(Entradas!B4:B62,B4,Entradas!C4:C62)</f>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>45308</v>
-      </c>
-      <c r="C5" s="1">
-        <f>SUMIF(Entradas!B5:B63,B5,Entradas!C5:C63)</f>
-        <v>916.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>45309</v>
-      </c>
-      <c r="C6" s="1">
-        <f>SUMIF(Entradas!B6:B64,B6,Entradas!C6:C64)</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>45310</v>
-      </c>
-      <c r="C7" s="1">
-        <f>SUMIF(Entradas!B7:B65,B7,Entradas!C7:C65)</f>
-        <v>213.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>45311</v>
-      </c>
-      <c r="C8" s="1">
-        <f>SUMIF(Entradas!B8:B66,B8,Entradas!C8:C66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>45312</v>
-      </c>
-      <c r="C9" s="1">
-        <f>SUMIF(Entradas!B9:B67,B9,Entradas!C9:C67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>45313</v>
-      </c>
-      <c r="C10" s="1">
-        <f>SUMIF(Entradas!B10:B68,B10,Entradas!C10:C68)</f>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>45314</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUMIF(Entradas!B11:B69,B11,Entradas!C11:C69)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>45315</v>
-      </c>
-      <c r="C12" s="1">
-        <f>SUMIF(Entradas!B12:B70,B12,Entradas!C12:C70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>45316</v>
-      </c>
-      <c r="C13" s="1">
-        <f>SUMIF(Entradas!B13:B71,B13,Entradas!C13:C71)</f>
-        <v>656.98</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>45317</v>
-      </c>
-      <c r="C14" s="1">
-        <f>SUMIF(Entradas!B14:B72,B14,Entradas!C14:C72)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>45318</v>
-      </c>
-      <c r="C15" s="1">
-        <f>SUMIF(Entradas!B15:B73,B15,Entradas!C15:C73)</f>
-        <v>513</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>45319</v>
-      </c>
-      <c r="C16" s="1">
-        <f>SUMIF(Entradas!B16:B74,B16,Entradas!C16:C74)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>45320</v>
-      </c>
-      <c r="C17" s="1">
-        <f>SUMIF(Entradas!B17:B75,B17,Entradas!C17:C75)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
-        <v>45321</v>
-      </c>
-      <c r="C18" s="1">
-        <f>SUMIF(Entradas!B18:B76,B18,Entradas!C18:C76)</f>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
-        <v>45322</v>
-      </c>
-      <c r="C19" s="1">
-        <f>SUMIF(Entradas!B19:B77,B19,Entradas!C19:C77)</f>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
-        <v>45323</v>
-      </c>
-      <c r="C20" s="1">
-        <f>SUMIF(Entradas!B20:B78,B20,Entradas!C20:C78)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
-        <v>45324</v>
-      </c>
-      <c r="C21" s="1">
-        <f>SUMIF(Entradas!B21:B79,B21,Entradas!C21:C79)</f>
-        <v>549.9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
-        <v>45325</v>
-      </c>
-      <c r="C22" s="1">
-        <f>SUMIF(Entradas!B22:B80,B22,Entradas!C22:C80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
-        <v>45326</v>
-      </c>
-      <c r="C23" s="1">
-        <f>SUMIF(Entradas!B23:B81,B23,Entradas!C23:C81)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
-        <v>45327</v>
-      </c>
-      <c r="C24" s="1">
-        <f>SUMIF(Entradas!B24:B82,B24,Entradas!C24:C82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
-        <v>45328</v>
-      </c>
-      <c r="C25" s="1">
-        <f>SUMIF(Entradas!B25:B83,B25,Entradas!C25:C83)</f>
-        <v>274.97000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
-        <v>45329</v>
-      </c>
-      <c r="C26" s="1">
-        <f>SUMIF(Entradas!B26:B84,B26,Entradas!C26:C84)</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
-        <v>45330</v>
-      </c>
-      <c r="C27" s="1">
-        <f>SUMIF(Entradas!B27:B85,B27,Entradas!C27:C85)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
-        <v>45331</v>
-      </c>
-      <c r="C28" s="1">
-        <f>SUMIF(Entradas!B28:B86,B28,Entradas!C28:C86)</f>
-        <v>511.08</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="6">
-        <v>45332</v>
-      </c>
-      <c r="C29" s="1">
-        <f>SUMIF(Entradas!B29:B87,B29,Entradas!C29:C87)</f>
-        <v>1227.6400000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="6">
-        <v>45333</v>
-      </c>
-      <c r="C30" s="1">
-        <f>SUMIF(Entradas!B30:B88,B30,Entradas!C30:C88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="6">
-        <v>45334</v>
-      </c>
-      <c r="C31" s="1">
-        <f>SUMIF(Entradas!B31:B89,B31,Entradas!C31:C89)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
-        <v>45335</v>
-      </c>
-      <c r="C32" s="1">
-        <f>SUMIF(Entradas!B32:B90,B32,Entradas!C32:C90)</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
-        <v>45336</v>
-      </c>
-      <c r="C33" s="1">
-        <f>SUMIF(Entradas!B33:B91,B33,Entradas!C33:C91)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="6">
-        <v>45337</v>
-      </c>
-      <c r="C34" s="1">
-        <f>SUMIF(Entradas!B34:B92,B34,Entradas!C34:C92)</f>
-        <v>254.56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="6">
-        <v>45338</v>
-      </c>
-      <c r="C35" s="1">
-        <f>SUMIF(Entradas!B35:B93,B35,Entradas!C35:C93)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="6">
-        <v>45339</v>
-      </c>
-      <c r="C36" s="1">
-        <f>SUMIF(Entradas!B36:B94,B36,Entradas!C36:C94)</f>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="6">
-        <v>45340</v>
-      </c>
-      <c r="C37" s="1">
-        <f>SUMIF(Entradas!B37:B95,B37,Entradas!C37:C95)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="6">
-        <v>45341</v>
-      </c>
-      <c r="C38" s="1">
-        <f>SUMIF(Entradas!B38:B96,B38,Entradas!C38:C96)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="6">
-        <v>45342</v>
-      </c>
-      <c r="C39" s="1">
-        <f>SUMIF(Entradas!B39:B97,B39,Entradas!C39:C97)</f>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="6">
-        <v>45343</v>
-      </c>
-      <c r="C40" s="1">
-        <f>SUMIF(Entradas!B40:B98,B40,Entradas!C40:C98)</f>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="6">
-        <v>45344</v>
-      </c>
-      <c r="C41" s="1">
-        <f>SUMIF(Entradas!B41:B99,B41,Entradas!C41:C99)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="6">
-        <v>45345</v>
-      </c>
-      <c r="C42" s="1">
-        <f>SUMIF(Entradas!B42:B100,B42,Entradas!C42:C100)</f>
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95429D66-8B82-44E0-9D02-B611C22C8725}">
-  <dimension ref="B2:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
-        <v>45292</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <v>45293</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1579.98</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>45294</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1203.9000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>45295</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2367.69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>45296</v>
-      </c>
-      <c r="C7" s="1">
-        <v>865.56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFFF400-4995-405A-B166-7557561D4A85}">
-  <dimension ref="B2:C58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>45306</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
+        <f ca="1">SUMIF($B$3:$B$76,B3,$C$3:$C$76)</f>
         <v>100</v>
       </c>
     </row>
@@ -1405,440 +1399,414 @@
       <c r="B4" s="2">
         <v>45307</v>
       </c>
-      <c r="C4" s="3">
-        <v>142</v>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C49" ca="1" si="0">SUMIF($B$3:$B$76,B4,$C$3:$C$76)</f>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>45308</v>
       </c>
-      <c r="C5" s="3">
-        <v>90</v>
+      <c r="C5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>916.5</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>45309</v>
       </c>
-      <c r="C6" s="3">
-        <v>916.5</v>
+      <c r="C6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>45310</v>
       </c>
-      <c r="C7" s="3">
-        <v>198</v>
+      <c r="C7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>213.5</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>45311</v>
       </c>
-      <c r="C8" s="3">
-        <v>90</v>
+      <c r="C8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>45312</v>
       </c>
-      <c r="C9" s="3">
-        <v>123.5</v>
+      <c r="C9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>45313</v>
       </c>
-      <c r="C10" s="3">
-        <v>41</v>
+      <c r="C10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>45314</v>
       </c>
-      <c r="C11" s="3">
-        <v>95</v>
+      <c r="C11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>45315</v>
       </c>
-      <c r="C12" s="3">
-        <v>90</v>
+      <c r="C12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>45316</v>
       </c>
-      <c r="C13" s="3">
-        <v>20</v>
+      <c r="C13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>656.98</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>45317</v>
       </c>
-      <c r="C14" s="3">
-        <v>100</v>
+      <c r="C14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>45318</v>
       </c>
-      <c r="C15" s="3">
-        <v>386</v>
+      <c r="C15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>45319</v>
       </c>
-      <c r="C16" s="3">
-        <v>170.98</v>
+      <c r="C16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>45320</v>
       </c>
-      <c r="C17" s="3">
-        <v>90</v>
+      <c r="C17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>45321</v>
       </c>
-      <c r="C18" s="3">
-        <v>154</v>
+      <c r="C18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>45322</v>
       </c>
-      <c r="C19" s="3">
-        <v>359</v>
+      <c r="C19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>45323</v>
       </c>
-      <c r="C20" s="3">
-        <v>74</v>
+      <c r="C20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>45324</v>
       </c>
-      <c r="C21" s="3">
-        <v>27</v>
+      <c r="C21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>549.9</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>45325</v>
       </c>
-      <c r="C22" s="3">
-        <v>141</v>
+      <c r="C22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>45326</v>
       </c>
-      <c r="C23" s="3">
-        <v>95</v>
+      <c r="C23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>45327</v>
       </c>
-      <c r="C24" s="3">
-        <v>129</v>
+      <c r="C24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>45328</v>
       </c>
-      <c r="C25" s="3">
-        <v>72</v>
+      <c r="C25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>274.97000000000003</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>45329</v>
       </c>
-      <c r="C26" s="3">
-        <v>100</v>
+      <c r="C26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>45330</v>
       </c>
-      <c r="C27" s="3">
-        <v>90</v>
+      <c r="C27" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>45331</v>
       </c>
-      <c r="C28" s="3">
-        <v>165</v>
+      <c r="C28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>511.08</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>45332</v>
       </c>
-      <c r="C29" s="3">
-        <v>90</v>
+      <c r="C29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1227.6400000000001</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>45333</v>
       </c>
-      <c r="C30" s="3">
-        <v>45</v>
+      <c r="C30" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>45334</v>
       </c>
-      <c r="C31" s="3">
-        <v>249.9</v>
+      <c r="C31" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>45335</v>
       </c>
-      <c r="C32" s="3">
-        <v>159.97</v>
+      <c r="C32" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>45336</v>
       </c>
-      <c r="C33" s="3">
-        <v>115</v>
+      <c r="C33" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>45337</v>
       </c>
-      <c r="C34" s="3">
-        <v>184</v>
+      <c r="C34" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>254.56</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>45338</v>
       </c>
-      <c r="C35" s="3">
-        <v>100</v>
+      <c r="C35" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>45339</v>
       </c>
-      <c r="C36" s="3">
-        <v>70</v>
+      <c r="C36" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>45340</v>
       </c>
-      <c r="C37" s="3">
-        <v>110</v>
+      <c r="C37" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>45341</v>
       </c>
-      <c r="C38" s="3">
-        <v>401.08</v>
+      <c r="C38" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>45342</v>
       </c>
-      <c r="C39" s="3">
-        <v>111.44</v>
+      <c r="C39" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>45343</v>
       </c>
-      <c r="C40" s="3">
-        <v>695.2</v>
+      <c r="C40" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>45344</v>
       </c>
-      <c r="C41" s="3">
-        <v>25</v>
+      <c r="C41" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>45345</v>
       </c>
-      <c r="C42" s="3">
-        <v>396</v>
+      <c r="C42" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>45346</v>
       </c>
-      <c r="C43" s="3">
-        <v>95</v>
+      <c r="C43" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>366.4</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>45347</v>
       </c>
-      <c r="C44" s="3">
-        <v>94</v>
+      <c r="C44" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>45348</v>
       </c>
-      <c r="C45" s="3">
-        <v>20</v>
+      <c r="C45" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>45349</v>
       </c>
-      <c r="C46" s="3">
-        <v>19</v>
+      <c r="C46" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>45350</v>
       </c>
-      <c r="C47" s="3">
-        <v>169.56</v>
+      <c r="C47" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>45351</v>
       </c>
-      <c r="C48" s="3">
-        <v>85</v>
+      <c r="C48" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>45352</v>
       </c>
-      <c r="C49" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="2">
-        <v>45353</v>
-      </c>
-      <c r="C50" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="2">
-        <v>45354</v>
-      </c>
-      <c r="C51" s="3">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="2">
-        <v>45355</v>
-      </c>
-      <c r="C52" s="3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="2">
-        <v>45356</v>
-      </c>
-      <c r="C53" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="2">
-        <v>45357</v>
-      </c>
-      <c r="C54" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="2">
-        <v>45358</v>
-      </c>
-      <c r="C55" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="2">
-        <v>45359</v>
-      </c>
-      <c r="C56" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="2">
-        <v>45360</v>
-      </c>
-      <c r="C57" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="2">
-        <v>45361</v>
-      </c>
-      <c r="C58" s="3">
-        <v>318</v>
+      <c r="C49" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>469.88</v>
       </c>
     </row>
   </sheetData>
